--- a/xlsx/2017年土耳其封锁维基百科事件_intext.xlsx
+++ b/xlsx/2017年土耳其封锁维基百科事件_intext.xlsx
@@ -29,7 +29,7 @@
     <t>土耳其</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_2017年土耳其封锁维基百科事件</t>
+    <t>政策_政策_维基百科_2017年土耳其封锁维基百科事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2016年土耳其政變</t>
+    <t>2016年土耳其政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%A4%A7%E6%B8%85%E6%B4%97</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E4%BF%AE%E6%86%B2%E5%85%AC%E6%8A%95</t>
   </si>
   <si>
-    <t>2017年土耳其修憲公投</t>
+    <t>2017年土耳其修宪公投</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E7%9A%84%E5%AE%A1%E6%9F%A5%E5%92%8C%E5%B0%81%E9%94%81</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%BF%9D%E8%AD%B7%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>人民保護部隊</t>
+    <t>人民保护部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sinjar_Mountains</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E6%B0%91%E4%B8%BB%E5%8A%9B%E9%87%8F</t>
   </si>
   <si>
-    <t>敘利亞民主力量</t>
+    <t>叙利亚民主力量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%8D%A1%E7%9C%81%E5%8C%97%E9%83%A8%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>拉卡省北部攻勢</t>
+    <t>拉卡省北部攻势</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/G%C3%BClen_movement</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E7%A7%81%E4%BA%BA%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>虛擬私人網路</t>
+    <t>虚拟私人网路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internet_regulation_in_Turkey</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>共和人民黨</t>
+    <t>共和人民党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eren_Erdem</t>
